--- a/biology/Médecine/Précordialgie/Précordialgie.xlsx
+++ b/biology/Médecine/Précordialgie/Précordialgie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pr%C3%A9cordialgie</t>
+          <t>Précordialgie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La précordialgie est une douleur thoracique située dans la région thoracique antérieure gauche, par extension devant le cœur (le terme "précordial" désignant la zone anatomique située à l'avant du cœur).
 C'est un signe sémiologique cardiologique apparaissant souvent comme la conséquence d'un stress, lors d'un effort ou d'une frayeur. Elle désigne essentiellement les fausses angines de poitrine.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pr%C3%A9cordialgie</t>
+          <t>Précordialgie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n’y a pas de remède connu pour ce trouble transitoire, qui est bénin malgré la douleur qu'il peut causer. La position de la douleur fait facilement craindre un indicateur d’une crise cardiaque ou d’une autre affection plus grave, cependant les symptômes sont très différents[C'est-à-dire ?].
  Portail de la médecine                     </t>
